--- a/MySEProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
+++ b/MySEProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\otoem\neocortexapi-classification\MyProject\Dataset Reports\Dataset-Otovwerakpo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\shapes\Dataset-Otovwerakpo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CB1864-ABFD-4FD4-917D-C070E5C72E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA236C-CFE6-4EBC-928C-729BBEE3D8FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
   <si>
     <t>Experiment Number</t>
   </si>
@@ -66,10 +66,6 @@
     <t>Stable state</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 100
-circle -triangle macro (max) correlation is 90, these values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>180x180</t>
   </si>
   <si>
@@ -88,18 +84,12 @@
     <t>Unstable state</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 98.8, circle -triangle macro (max) correlation is 98.33, circle -star macro (max) correlation is 98.31. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>5hrs</t>
   </si>
   <si>
     <t>Experiment001</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 98.8, circle -triangle macro (max) correlation is 97.65, circle -star macro (max) correlation is 97.27. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>1hrs</t>
   </si>
   <si>
@@ -112,9 +102,6 @@
     <t>Experiment002</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 99.73, circle -triangle macro (max) correlation is 97.90, circle -star macro (max) correlation is 99.12. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>120x120</t>
   </si>
   <si>
@@ -124,105 +111,60 @@
     <t>Experiment003</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 99.97, circle -triangle macro (max) correlation is 99.55, circle -star macro (max) correlation is 99.50. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>110x110</t>
   </si>
   <si>
     <t>Experiment004</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 99.90, circle -triangle macro (max) correlation is 97.61, circle -star macro (max) correlation is 96.48. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>2hrs</t>
   </si>
   <si>
     <t>Experiment005</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 99.08, circle -triangle macro (max) correlation is 95.65, circle -star macro (max) correlation is 94.5. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>100x100</t>
   </si>
   <si>
     <t>Experiment006</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 98.32, circle -triangle macro (max) correlation is 80.60, circle -star macro (max) correlation is 75.79. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment007</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 96.15, circle -triangle macro (max) correlation is 86.26, circle -star macro (max) correlation is 83.07. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment008</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 96.69, circle -triangle macro (max) correlation is 82.98, circle -star macro (max) correlation is 79.31. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment009</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 98.71, circle -triangle macro (max) correlation is 77.44, circle -star macro (max) correlation is 71.25. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment010</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 97.77, circle -triangle macro (max) correlation is 89.87, circle -star macro (max) correlation is 85.46. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment0000</t>
   </si>
   <si>
     <t>Experiment0001</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 82.62, circle -triangle macro (max) correlation is 75.12, circle -star macro (max) correlation is 75.60. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
-    <t>circle -square macro (max) correlation is 99.41, circle -triangle macro (max) correlation is 99,23, circle -star macro (max) correlation is 99.13. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment0003</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 88.00, circle -triangle macro (max) correlation is 72.46, circle -star macro (max) correlation is 75.63. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment0002</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 94.96, circle -triangle macro (max) correlation is 86.10, circle -star macro (max) correlation is 87.79. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>2.5hrs</t>
   </si>
   <si>
     <t>Experiment0005</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 84.52, circle -triangle macro (max) correlation is 67.87, circle -star macro (max) correlation is 67.97. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment0004</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 80,59, circle -triangle macro (max) correlation is 64,21, circle -star macro (max) correlation is 65,25. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>Experiment0006</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 78.98, circle -triangle macro (max) correlation is 70.51, circle -star macro (max) correlation is 83.21. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
     <t>6hrs</t>
   </si>
   <si>
@@ -250,44 +192,1208 @@
     <t>Experiment0013</t>
   </si>
   <si>
-    <t>circle -square macro (max) correlation is 91.42, circle -triangle macro (max) correlation is 34.28, circle -star macro (max) correlation is 55.00. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
-    <t>circle -square macro (max) correlation is 94.66, circle -triangle macro (max) correlation is 50.88, circle -star macro (max) correlation is 74.03. These values are really high compare to the desireable output.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle -square macro (max) correlation is 54.47, circle -triangle macro (max) correlation is 27.64, circle -star macro (max) correlation is 19.51, but the micro value is low. </t>
-  </si>
-  <si>
-    <t>circle -square macro (max) correlation is 56.96, circle -triangle macro (max) correlation is 24.39, circle -star macro (max) correlation is 19.51, but the micro value is low.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle -square macro (max) correlation is 58,53, circle -triangle macro (max) correlation is 28,78, circle -star macro (max) correlation is 16.58, but the micro value is low. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle -square macro (max) correlation is 92.85, circle -triangle macro (max) correlation is 36,20, circle -star macro (max) correlation is 48.21, but some micro values (triangle and star) are low. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">circle -square macro (max) correlation is 90.47, circle -triangle macro (max) correlation is 26,76, circle -star macro (max) correlation is 50.00, but some micro values (triangle and star) are low. </t>
-  </si>
-  <si>
     <t>Experiment0014</t>
   </si>
   <si>
-    <t xml:space="preserve">circle -square macro (max) correlation is 92.63, circle -triangle macro (max) correlation is 37.27, circle -star macro (max) correlation is 59.76. The micro values are high enough except the triangle. </t>
-  </si>
-  <si>
     <t>Experiment0015</t>
   </si>
   <si>
-    <t>The triangle dataset was updated which inprove the result</t>
+    <r>
+      <t xml:space="preserve">Micro is btw 70-100 
+Macro is btw  60-100, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 96,98-99,89
+Macro is btw  98,30-99,34, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 96,61-100 
+Macro is btw  97,26-98,88, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 95,72-99,94
+Macro is btw  97,52-99,73, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 99,27-99,94 
+Macro is btw  99,47-99,97, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 95,11-100 
+Macro is btw  95,08-99,90, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 95,09-99,89 
+Macro is btw  91,97-99,08, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 96,56-100 
+Macro is btw  75,79-98,32, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 83,68-99,72
+Macro is btw  83,07-96,15, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 84,56-99,80
+Macro is btw  79,31-96,69, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 94,40-100 
+Macro is btw  71,25-97,71, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 96,32-100 
+Macro is btw  85,46-97,77, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 46,41-98,81 
+Macro is btw  74,45-82,62, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 98,80-100 
+Macro is btw  99,13-99,64, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 63,85-97,94
+Macro is btw  72,46-88,00, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 80,89-99,63 
+Macro is btw  86,10-94,96, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 95,11-100 
+Macro is btw  96,48-99,90, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 58,09-99,86
+Macro is btw  67,87-84,52, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 21,99-98,62
+Macro is btw  70,51-83,21, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 4,45-98,93
+Macro is btw  50,15-94,66, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-98,57 
+Macro is btw  34,28-91,42, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 1,62-94,30 
+Macro is btw  19,51-56,91, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0,81-93,49 
+Macro is btw  19,15-54,47, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 2,92-91,21 
+Macro is btw  16,58-58,53, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: good</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-96,42 
+Macro is btw  24,13-92,85, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-97,61
+Macro is btw  26,19-90,47, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-98,81
+Macro is btw  37,27-92,30, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good, Macro: not desireable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-98,81
+Macro is btw  52,87-92,30, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: not desireable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">new dataset for triangle was updated. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment0016</t>
+  </si>
+  <si>
+    <t>Experiment0017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-97,63
+Macro is btw  46,24-65,53, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dataset for triangle and Square was updated. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-96,95
+Macro is btw  53,85-90,35, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: not desireable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dataset for triangle and Square was updated. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment0018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-96,44
+Macro is btw  0-90,22, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: not desireable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dataset for triangle and Square was updated. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment0019</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-97,63
+Macro is btw  51,67-89,43, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dataset for triangle and Square was updated. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment0020</t>
+  </si>
+  <si>
+    <t>Triangle and Square updated. Predict Image added</t>
+  </si>
+  <si>
+    <t>Experiment0021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-96,44
+Macro is btw  0-68, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Predicted image is 94% average similar to Circle, which is correct. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-92,85
+Macro is btw  0-46,42, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Predicted image is 89% average similar to Circle, which is correct. </t>
+    </r>
+  </si>
+  <si>
+    <t>Experiment0022</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 0-96,58
+Macro is btw  55,79-70.13, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Predicted image is 94% average similar to Circle, which is correct. </t>
+    </r>
+  </si>
+  <si>
+    <t>24hrs</t>
+  </si>
+  <si>
+    <t>Experiment0023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro is btw 2,23-95,79
+Macro is btw  52,30-75.66, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Micro: not very good but doable, Macro: good.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Predicted image is 86% average similar to Circle, which is correct. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,8 +1410,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -401,6 +1522,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,13 +1540,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,49 +1821,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="70.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="20.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="16.54296875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="70.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="71.7265625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="13" t="s">
-        <v>68</v>
+      <c r="I1" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -762,13 +1883,13 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="I2" s="15"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -791,7 +1912,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
@@ -800,10 +1921,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -823,22 +1944,22 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -858,22 +1979,22 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -893,22 +2014,22 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -928,22 +2049,22 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -963,22 +2084,22 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -998,22 +2119,22 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1033,22 +2154,22 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1068,22 +2189,22 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1103,22 +2224,22 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1138,22 +2259,22 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1173,22 +2294,22 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1208,22 +2329,22 @@
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1243,22 +2364,22 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1278,22 +2399,22 @@
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1313,22 +2434,22 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1348,22 +2469,22 @@
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1383,22 +2504,22 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1418,22 +2539,22 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1453,22 +2574,22 @@
         <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1488,22 +2609,22 @@
         <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1523,22 +2644,22 @@
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1558,22 +2679,22 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1593,22 +2714,22 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1628,22 +2749,22 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1663,22 +2784,22 @@
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1698,22 +2819,22 @@
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1733,21 +2854,315 @@
         <v>7</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="1" t="s">
         <v>84</v>
       </c>
     </row>
+    <row r="31" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="9"/>
+      <c r="I35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>

--- a/MySEProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
+++ b/MySEProject/Dataset Reports/Dataset-Otovwerakpo/Experiment-Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\shapes\Dataset-Otovwerakpo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA236C-CFE6-4EBC-928C-729BBEE3D8FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C279D45-27B9-4E6D-A0F1-2006F14D29ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
   <si>
     <t>Experiment Number</t>
   </si>
@@ -54,24 +54,12 @@
     <t>Result(micro and macro corelation)</t>
   </si>
   <si>
-    <t>200x200</t>
-  </si>
-  <si>
-    <t>Experiment01</t>
-  </si>
-  <si>
     <t>State Mode</t>
   </si>
   <si>
     <t>Stable state</t>
   </si>
   <si>
-    <t>180x180</t>
-  </si>
-  <si>
-    <t>Experiment000</t>
-  </si>
-  <si>
     <t>Run-time (hours)</t>
   </si>
   <si>
@@ -81,66 +69,21 @@
     <t>12hrs</t>
   </si>
   <si>
-    <t>Unstable state</t>
-  </si>
-  <si>
     <t>5hrs</t>
   </si>
   <si>
-    <t>Experiment001</t>
-  </si>
-  <si>
-    <t>1hrs</t>
-  </si>
-  <si>
-    <t>170x170</t>
-  </si>
-  <si>
     <t>4hrs</t>
   </si>
   <si>
-    <t>Experiment002</t>
-  </si>
-  <si>
-    <t>120x120</t>
-  </si>
-  <si>
     <t>3hrs</t>
   </si>
   <si>
-    <t>Experiment003</t>
-  </si>
-  <si>
-    <t>110x110</t>
-  </si>
-  <si>
-    <t>Experiment004</t>
-  </si>
-  <si>
     <t>2hrs</t>
   </si>
   <si>
-    <t>Experiment005</t>
-  </si>
-  <si>
     <t>100x100</t>
   </si>
   <si>
-    <t>Experiment006</t>
-  </si>
-  <si>
-    <t>Experiment007</t>
-  </si>
-  <si>
-    <t>Experiment008</t>
-  </si>
-  <si>
-    <t>Experiment009</t>
-  </si>
-  <si>
-    <t>Experiment010</t>
-  </si>
-  <si>
     <t>Experiment0000</t>
   </si>
   <si>
@@ -196,330 +139,6 @@
   </si>
   <si>
     <t>Experiment0015</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 70-100 
-Macro is btw  60-100, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 96,98-99,89
-Macro is btw  98,30-99,34, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 96,61-100 
-Macro is btw  97,26-98,88, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 95,72-99,94
-Macro is btw  97,52-99,73, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 99,27-99,94 
-Macro is btw  99,47-99,97, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 95,11-100 
-Macro is btw  95,08-99,90, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 95,09-99,89 
-Macro is btw  91,97-99,08, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 96,56-100 
-Macro is btw  75,79-98,32, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 83,68-99,72
-Macro is btw  83,07-96,15, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 84,56-99,80
-Macro is btw  79,31-96,69, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 94,40-100 
-Macro is btw  71,25-97,71, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Micro is btw 96,32-100 
-Macro is btw  85,46-97,77, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Micro: good, Macro: not desireable</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1387,13 +1006,49 @@
       </rPr>
       <t xml:space="preserve">Predicted image is 86% average similar to Circle, which is correct. </t>
     </r>
+  </si>
+  <si>
+    <t>Micro Cicrle (Max)</t>
+  </si>
+  <si>
+    <t>Micro Cicrle (Min)</t>
+  </si>
+  <si>
+    <t>Micro Square (Max)</t>
+  </si>
+  <si>
+    <t>Micro Square (Min)</t>
+  </si>
+  <si>
+    <t>Micro Triangle (Max)</t>
+  </si>
+  <si>
+    <t>Micro Triangle (Min)</t>
+  </si>
+  <si>
+    <t>Micro Star (Max)</t>
+  </si>
+  <si>
+    <t>Micro Star (Min)</t>
+  </si>
+  <si>
+    <t>Macro  (Max)</t>
+  </si>
+  <si>
+    <t>Experiment0024</t>
+  </si>
+  <si>
+    <t>26hrs</t>
+  </si>
+  <si>
+    <t>Experiment0025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1432,8 +1087,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,8 +1107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1496,12 +1163,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1525,8 +1229,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,6 +1246,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1556,6 +1278,2257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Shapes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> Similarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.5131924298936327E-2"/>
+          <c:y val="9.5815247634947129E-2"/>
+          <c:w val="0.89529869771063308"/>
+          <c:h val="0.72886920019805534"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LocalAreaDensity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9359-41E1-BA8B-CBF04A88BF13}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Cicrle (Max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>99.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.63</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>82.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Cicrle (Min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>93.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85.71</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.87</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Square (Max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>99.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>98.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.63</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93.49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Square (Min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>87.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.630000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Triangle (Max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>85.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78.69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.105999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Triangle (Min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>80.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Star (Max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>97.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micro Star (Min)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>82.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.99</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Macro  (Max)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>92.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.91</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9359-41E1-BA8B-CBF04A88BF13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="547802143"/>
+        <c:axId val="547802559"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="547802143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400" b="1"/>
+                  <a:t>LocalAreaDensity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547802559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="547802559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Similarity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.148425824762335E-2"/>
+              <c:y val="0.42776788961479983"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547802143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8610682037950996E-2"/>
+          <c:y val="4.3867600857071497E-2"/>
+          <c:w val="0.86277863592409798"/>
+          <c:h val="4.1040754713674139E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>459014</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CFAB1DA-6FA0-42B6-9303-0BE99047D8E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,49 +3794,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.453125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.26953125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="16.54296875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="70.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="16.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="17.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="71.7265625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1883,59 +3875,113 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E3" s="2">
         <v>-1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="20">
+        <v>99.35</v>
+      </c>
+      <c r="K3" s="20">
+        <v>93.41</v>
+      </c>
+      <c r="L3" s="20">
+        <v>99.63</v>
+      </c>
+      <c r="M3" s="20">
+        <v>87.21</v>
+      </c>
+      <c r="N3" s="20">
+        <v>85.71</v>
+      </c>
+      <c r="O3" s="20">
+        <v>80.89</v>
+      </c>
+      <c r="P3" s="20">
+        <v>97.29</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>82.34</v>
+      </c>
+      <c r="R3" s="20">
+        <v>94.96</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>57</v>
+      <c r="T3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="2">
         <v>-1</v>
@@ -1944,24 +3990,51 @@
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>58</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="20">
+        <v>93.89</v>
+      </c>
+      <c r="K4" s="20">
+        <v>65.19</v>
+      </c>
+      <c r="L4" s="20">
+        <v>99.86</v>
+      </c>
+      <c r="M4" s="20">
+        <v>66.39</v>
+      </c>
+      <c r="N4" s="20">
+        <v>58.09</v>
+      </c>
+      <c r="O4" s="20">
+        <v>48.13</v>
+      </c>
+      <c r="P4" s="20">
+        <v>91.63</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>55.22</v>
+      </c>
+      <c r="R4" s="20">
+        <v>84.52</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="b">
         <v>0</v>
@@ -1970,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="2">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="2">
         <v>-1</v>
@@ -1979,24 +4052,51 @@
         <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="20">
+        <v>90.07</v>
+      </c>
+      <c r="K5" s="20">
+        <v>63.49</v>
+      </c>
+      <c r="L5" s="20">
+        <v>99.81</v>
+      </c>
+      <c r="M5" s="20">
+        <v>63.2</v>
+      </c>
+      <c r="N5" s="20">
+        <v>56.42</v>
+      </c>
+      <c r="O5" s="20">
+        <v>48.3</v>
+      </c>
+      <c r="P5" s="20">
+        <v>89.03</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>53.28</v>
+      </c>
+      <c r="R5" s="20">
+        <v>99.9</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="b">
         <v>0</v>
@@ -2005,7 +4105,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="E6" s="2">
         <v>-1</v>
@@ -2014,33 +4114,60 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>60</v>
+      <c r="J6" s="20">
+        <v>97.94</v>
+      </c>
+      <c r="K6" s="20">
+        <v>75.319999999999993</v>
+      </c>
+      <c r="L6" s="20">
+        <v>99.06</v>
+      </c>
+      <c r="M6" s="20">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="N6" s="20">
+        <v>74.680000000000007</v>
+      </c>
+      <c r="O6" s="20">
+        <v>63.85</v>
+      </c>
+      <c r="P6" s="20">
+        <v>96.8</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>64.7</v>
+      </c>
+      <c r="R6" s="20">
+        <v>88</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
@@ -2049,33 +4176,60 @@
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="20">
+        <v>86.72</v>
+      </c>
+      <c r="K7" s="20">
+        <v>38.86</v>
+      </c>
+      <c r="L7" s="20">
+        <v>98.62</v>
+      </c>
+      <c r="M7" s="20">
+        <v>39.81</v>
+      </c>
+      <c r="N7" s="20">
+        <v>50.99</v>
+      </c>
+      <c r="O7" s="20">
+        <v>21.48</v>
+      </c>
+      <c r="P7" s="20">
+        <v>91.49</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>32.64</v>
+      </c>
+      <c r="R7" s="20">
+        <v>83.21</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>6</v>
       </c>
       <c r="B8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="2">
         <v>-1</v>
@@ -2084,24 +4238,51 @@
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="J8" s="20">
+        <v>95.82</v>
+      </c>
+      <c r="K8" s="20">
+        <v>72.19</v>
+      </c>
+      <c r="L8" s="20">
+        <v>99.81</v>
+      </c>
+      <c r="M8" s="20">
+        <v>64.89</v>
+      </c>
+      <c r="N8" s="20">
+        <v>63.5</v>
+      </c>
+      <c r="O8" s="20">
+        <v>46.41</v>
+      </c>
+      <c r="P8" s="20">
+        <v>93.69</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>56.66</v>
+      </c>
+      <c r="R8" s="20">
+        <v>82.62</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="b">
         <v>0</v>
@@ -2110,7 +4291,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="2">
         <v>-1</v>
@@ -2119,24 +4300,51 @@
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
+      </c>
+      <c r="J9" s="20">
+        <v>99.82</v>
+      </c>
+      <c r="K9" s="20">
+        <v>99.03</v>
+      </c>
+      <c r="L9" s="20">
+        <v>100</v>
+      </c>
+      <c r="M9" s="20">
+        <v>98.98</v>
+      </c>
+      <c r="N9" s="20">
+        <v>99.41</v>
+      </c>
+      <c r="O9" s="20">
+        <v>98.8</v>
+      </c>
+      <c r="P9" s="20">
+        <v>99.72</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>98.9</v>
+      </c>
+      <c r="R9" s="20">
+        <v>99.64</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="b">
         <v>0</v>
@@ -2145,7 +4353,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="2">
         <v>-1</v>
@@ -2154,24 +4362,51 @@
         <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="J10" s="20">
+        <v>97.5</v>
+      </c>
+      <c r="K10" s="20">
+        <v>92.52</v>
+      </c>
+      <c r="L10" s="20">
+        <v>98.93</v>
+      </c>
+      <c r="M10" s="20">
+        <v>70.81</v>
+      </c>
+      <c r="N10" s="20">
+        <v>40.65</v>
+      </c>
+      <c r="O10" s="20">
+        <v>4.45</v>
+      </c>
+      <c r="P10" s="20">
+        <v>92.06</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>42.22</v>
+      </c>
+      <c r="R10" s="20">
+        <v>91.42</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="b">
         <v>0</v>
@@ -2180,7 +4415,7 @@
         <v>30</v>
       </c>
       <c r="D11" s="2">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="E11" s="2">
         <v>-1</v>
@@ -2189,24 +4424,51 @@
         <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="J11" s="20">
+        <v>92.85</v>
+      </c>
+      <c r="K11" s="20">
+        <v>87.85</v>
+      </c>
+      <c r="L11" s="20">
+        <v>98.57</v>
+      </c>
+      <c r="M11" s="20">
+        <v>63.57</v>
+      </c>
+      <c r="N11" s="20">
+        <v>33.11</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <v>82.14</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>22.14</v>
+      </c>
+      <c r="R11" s="20">
+        <v>91.42</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="b">
         <v>0</v>
@@ -2215,7 +4477,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="2">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="2">
         <v>-1</v>
@@ -2224,24 +4486,51 @@
         <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="J12" s="20">
+        <v>94.64</v>
+      </c>
+      <c r="K12" s="20">
+        <v>91.07</v>
+      </c>
+      <c r="L12" s="20">
+        <v>96.42</v>
+      </c>
+      <c r="M12" s="20">
+        <v>48.21</v>
+      </c>
+      <c r="N12" s="20">
+        <v>24.13</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>7.14</v>
+      </c>
+      <c r="R12" s="20">
+        <v>92.85</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="b">
         <v>0</v>
@@ -2250,7 +4539,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="2">
-        <v>8.5000000000000006E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E13" s="2">
         <v>-1</v>
@@ -2259,24 +4548,51 @@
         <v>7</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="J13" s="20">
+        <v>91.66</v>
+      </c>
+      <c r="K13" s="20">
+        <v>85.71</v>
+      </c>
+      <c r="L13" s="20">
+        <v>97.61</v>
+      </c>
+      <c r="M13" s="20">
+        <v>54.76</v>
+      </c>
+      <c r="N13" s="20">
+        <v>26.19</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>11.9</v>
+      </c>
+      <c r="R13" s="20">
+        <v>90.47</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="b">
         <v>0</v>
@@ -2285,7 +4601,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E14" s="2">
         <v>-1</v>
@@ -2294,24 +4610,51 @@
         <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="J14" s="20">
+        <v>97.63</v>
+      </c>
+      <c r="K14" s="20">
+        <v>88.75</v>
+      </c>
+      <c r="L14" s="20">
+        <v>98.81</v>
+      </c>
+      <c r="M14" s="20">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="N14" s="20">
+        <v>36.119999999999997</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>90.53</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>27.81</v>
+      </c>
+      <c r="R14" s="20">
+        <v>92.3</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="b">
         <v>0</v>
@@ -2320,7 +4663,7 @@
         <v>30</v>
       </c>
       <c r="D15" s="2">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="E15" s="2">
         <v>-1</v>
@@ -2329,24 +4672,51 @@
         <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="J15" s="20">
+        <v>97.63</v>
+      </c>
+      <c r="K15" s="20">
+        <v>88.75</v>
+      </c>
+      <c r="L15" s="20">
+        <v>98.64</v>
+      </c>
+      <c r="M15" s="20">
+        <v>64.489999999999995</v>
+      </c>
+      <c r="N15" s="20">
+        <v>78.69</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0</v>
+      </c>
+      <c r="P15" s="20">
+        <v>91.12</v>
+      </c>
+      <c r="Q15" s="20">
+        <v>28.4</v>
+      </c>
+      <c r="R15" s="20">
+        <v>92.8</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="b">
         <v>0</v>
@@ -2355,7 +4725,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="E16" s="2">
         <v>-1</v>
@@ -2364,33 +4734,60 @@
         <v>7</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>70</v>
+        <v>54</v>
+      </c>
+      <c r="J16" s="20">
+        <v>97.63</v>
+      </c>
+      <c r="K16" s="20">
+        <v>88.75</v>
+      </c>
+      <c r="L16" s="20">
+        <v>68.63</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.59</v>
+      </c>
+      <c r="N16" s="20">
+        <v>65.53</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="20">
+        <v>90.75</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>27.81</v>
+      </c>
+      <c r="R16" s="20">
+        <v>65.53</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
-        <v>0.65</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E17" s="2">
         <v>-1</v>
@@ -2399,33 +4796,60 @@
         <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="J17" s="20">
+        <v>96.95</v>
+      </c>
+      <c r="K17" s="20">
+        <v>91.87</v>
+      </c>
+      <c r="L17" s="20">
+        <v>67</v>
+      </c>
+      <c r="M17" s="20">
+        <v>34.51</v>
+      </c>
+      <c r="N17" s="20">
+        <v>84.26</v>
+      </c>
+      <c r="O17" s="20">
+        <v>0</v>
+      </c>
+      <c r="P17" s="20">
+        <v>90.19</v>
+      </c>
+      <c r="Q17" s="20">
+        <v>32.99</v>
+      </c>
+      <c r="R17" s="20">
+        <v>90.35</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
-        <v>0.65</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E18" s="2">
         <v>-1</v>
@@ -2434,33 +4858,60 @@
         <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="20">
+        <v>96.44</v>
+      </c>
+      <c r="K18" s="20">
+        <v>90.66</v>
+      </c>
+      <c r="L18" s="20">
+        <v>69.77</v>
+      </c>
+      <c r="M18" s="20">
         <v>32</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>72</v>
+      <c r="N18" s="20">
+        <v>86.22</v>
+      </c>
+      <c r="O18" s="20">
+        <v>0</v>
+      </c>
+      <c r="P18" s="20">
+        <v>89.2</v>
+      </c>
+      <c r="Q18" s="20">
+        <v>39.67</v>
+      </c>
+      <c r="R18" s="20">
+        <v>90.22</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
-        <v>0.15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
@@ -2469,33 +4920,60 @@
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="J19" s="20">
+        <v>97.63</v>
+      </c>
+      <c r="K19" s="20">
+        <v>88.75</v>
+      </c>
+      <c r="L19" s="20">
+        <v>62.72</v>
+      </c>
+      <c r="M19" s="20">
+        <v>30</v>
+      </c>
+      <c r="N19" s="20">
+        <v>78.105999999999995</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <v>90.05</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>27.81</v>
+      </c>
+      <c r="R19" s="20">
+        <v>89.43</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E20" s="2">
         <v>-1</v>
@@ -2504,33 +4982,60 @@
         <v>7</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="J20" s="20">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="K20" s="20">
+        <v>38.21</v>
+      </c>
+      <c r="L20" s="20">
+        <v>94.3</v>
+      </c>
+      <c r="M20" s="20">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="N20" s="20">
+        <v>17.07</v>
+      </c>
+      <c r="O20" s="20">
+        <v>1.62</v>
+      </c>
+      <c r="P20" s="20">
+        <v>56.09</v>
+      </c>
+      <c r="Q20" s="20">
+        <v>7.31</v>
+      </c>
+      <c r="R20" s="20">
+        <v>56.91</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="E21" s="2">
         <v>-1</v>
@@ -2539,33 +5044,60 @@
         <v>7</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>75</v>
+      <c r="J21" s="20">
+        <v>80.48</v>
+      </c>
+      <c r="K21" s="20">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="L21" s="20">
+        <v>93.49</v>
+      </c>
+      <c r="M21" s="20">
+        <v>30.08</v>
+      </c>
+      <c r="N21" s="20">
+        <v>9.75</v>
+      </c>
+      <c r="O21" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="P21" s="20">
+        <v>61.78</v>
+      </c>
+      <c r="Q21" s="20">
+        <v>4.87</v>
+      </c>
+      <c r="R21" s="20">
+        <v>54.47</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="53" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E22" s="2">
         <v>-1</v>
@@ -2574,68 +5106,114 @@
         <v>7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="20">
+        <v>82.92</v>
+      </c>
+      <c r="K22" s="20">
+        <v>41.95</v>
+      </c>
+      <c r="L22" s="20">
+        <v>91.21</v>
+      </c>
+      <c r="M22" s="20">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="N22" s="20">
+        <v>12.68</v>
+      </c>
+      <c r="O22" s="20">
+        <v>2.92</v>
+      </c>
+      <c r="P22" s="20">
+        <v>52.68</v>
+      </c>
+      <c r="Q22" s="20">
+        <v>7.8</v>
+      </c>
+      <c r="R22" s="20">
+        <v>58.53</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="O23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="3"/>
     </row>
-    <row r="23" spans="1:11" ht="46" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="E23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E24" s="2">
         <v>-1</v>
@@ -2644,33 +5222,60 @@
         <v>7</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="J24" s="21">
+        <v>92.85</v>
+      </c>
+      <c r="K24" s="21">
+        <v>71.42</v>
+      </c>
+      <c r="L24" s="21">
+        <v>46.42</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>57.14</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>7.14</v>
+      </c>
+      <c r="R24" s="21">
+        <v>46.42</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="E25" s="2">
         <v>-1</v>
@@ -2679,33 +5284,60 @@
         <v>7</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="J25" s="20">
+        <v>96.44</v>
+      </c>
+      <c r="K25" s="20">
+        <v>90.66</v>
+      </c>
+      <c r="L25" s="20">
+        <v>69.33</v>
+      </c>
+      <c r="M25" s="20">
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <v>86.22</v>
+      </c>
+      <c r="O25" s="20">
+        <v>0</v>
+      </c>
+      <c r="P25" s="20">
+        <v>87.39</v>
+      </c>
+      <c r="Q25" s="20">
+        <v>39.83</v>
+      </c>
+      <c r="R25" s="20">
+        <v>68</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="E26" s="2">
         <v>-1</v>
@@ -2714,24 +5346,51 @@
         <v>7</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
+      </c>
+      <c r="J26" s="20">
+        <v>96.58</v>
+      </c>
+      <c r="K26" s="20">
+        <v>88.53</v>
+      </c>
+      <c r="L26" s="20">
+        <v>75.16</v>
+      </c>
+      <c r="M26" s="20">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="N26" s="20">
+        <v>83.92</v>
+      </c>
+      <c r="O26" s="20">
+        <v>0</v>
+      </c>
+      <c r="P26" s="20">
+        <v>90.32</v>
+      </c>
+      <c r="Q26" s="20">
+        <v>53.02</v>
+      </c>
+      <c r="R26" s="20">
+        <v>70.13</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>0</v>
@@ -2740,7 +5399,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="2">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="E27" s="2">
         <v>-1</v>
@@ -2749,24 +5408,51 @@
         <v>7</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="J27" s="20">
+        <v>95.79</v>
+      </c>
+      <c r="K27" s="20">
+        <v>73.45</v>
+      </c>
+      <c r="L27" s="20">
+        <v>86.94</v>
+      </c>
+      <c r="M27" s="20">
+        <v>38.69</v>
+      </c>
+      <c r="N27" s="20">
+        <v>73.19</v>
+      </c>
+      <c r="O27" s="20">
+        <v>2.23</v>
+      </c>
+      <c r="P27" s="20">
+        <v>94.54</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>61.53</v>
+      </c>
+      <c r="R27" s="20">
+        <v>75.66</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="b">
         <v>0</v>
@@ -2774,8 +5460,8 @@
       <c r="C28" s="2">
         <v>30</v>
       </c>
-      <c r="D28" s="2">
-        <v>0.03</v>
+      <c r="D28" s="9">
+        <v>0.3</v>
       </c>
       <c r="E28" s="2">
         <v>-1</v>
@@ -2784,24 +5470,21 @@
         <v>7</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2" t="b">
         <v>0</v>
@@ -2809,8 +5492,8 @@
       <c r="C29" s="2">
         <v>30</v>
       </c>
-      <c r="D29" s="2">
-        <v>0.06</v>
+      <c r="D29" s="9">
+        <v>0.4</v>
       </c>
       <c r="E29" s="2">
         <v>-1</v>
@@ -2819,358 +5502,73 @@
         <v>7</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="J29" s="1">
+        <v>99.09</v>
+      </c>
+      <c r="K29" s="1">
+        <v>87.94</v>
+      </c>
+      <c r="L29" s="1">
+        <v>94.13</v>
+      </c>
+      <c r="M29" s="1">
+        <v>62.45</v>
+      </c>
+      <c r="N29" s="1">
+        <v>88.73</v>
+      </c>
+      <c r="O29" s="1">
+        <v>37.92</v>
+      </c>
+      <c r="P29" s="1">
+        <v>98.75</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>86.31</v>
+      </c>
+      <c r="R29" s="1">
+        <v>93.61</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E30" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E31" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E32" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>30</v>
-      </c>
-      <c r="D33" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E33" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E34" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H35" s="9"/>
-      <c r="I35" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>30</v>
-      </c>
-      <c r="D36" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E36" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="E37" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>35</v>
-      </c>
-      <c r="B38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E38" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>36</v>
-      </c>
-      <c r="B39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E39" s="2">
-        <v>-1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:20" ht="47" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:20" ht="48.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="61.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="54" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="50" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D28:S29">
+    <sortCondition ref="D28:D29"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>